--- a/src/test/resources/objects.xlsx
+++ b/src/test/resources/objects.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69167E1E-F811-DE41-8B7B-1B33427F2432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A28BC3-03EB-9246-B956-E05D05114BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>elementID</t>
   </si>
@@ -34,10 +34,67 @@
     <t>acceptCookies</t>
   </si>
   <si>
-    <t>button[class='button ui-cookieprompt__accept']</t>
-  </si>
-  <si>
-    <t>CSS_Selector</t>
+    <t>invoiceAmount</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>advanceRate</t>
+  </si>
+  <si>
+    <t>interestRate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>calculate-factoring</t>
+  </si>
+  <si>
+    <t>calculateButton</t>
+  </si>
+  <si>
+    <t>//button[@class='button ui-cookie-consent__accept-button']</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//div[@class='error validation-message']</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>commissionFee</t>
+  </si>
+  <si>
+    <t>calculatorResultPerc</t>
+  </si>
+  <si>
+    <t>calculatorResult</t>
+  </si>
+  <si>
+    <t>result_perc</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -403,17 +460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -432,15 +489,114 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ID,ClassName,LinkText,CSS_Selector,TagName,Xpath,Name,PartialLinkText"</formula1>
     </dataValidation>
   </dataValidations>
